--- a/sorting_algorithms.xlsx
+++ b/sorting_algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbildner/Desktop/AA-Data-Structures-Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F787C5CA-538A-184A-BE3E-C5F3767BFD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0145A-76A5-9E4A-AEF9-6AB6F2DB0F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33460" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14020" yWindow="460" windowWidth="33460" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SelectionSort" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>Problem #</t>
   </si>
@@ -1788,6 +1788,18 @@
   </si>
   <si>
     <t>// 4) else exit loop (num &gt;= prev) bec now we know where to insert currentNum</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>Counting Sort</t>
   </si>
 </sst>
 </file>
@@ -2683,7 +2695,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2994,7 +3006,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3343,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3431,6 +3443,50 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>912</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/sorting_algorithms.xlsx
+++ b/sorting_algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbildner/Desktop/AA-Data-Structures-Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0145A-76A5-9E4A-AEF9-6AB6F2DB0F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C4D269-A487-A041-BFF5-B7E879B81F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="460" windowWidth="33460" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8380" yWindow="460" windowWidth="33460" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SelectionSort" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>Problem #</t>
   </si>
@@ -1800,6 +1800,9 @@
   </si>
   <si>
     <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>Side by side comparison sort</t>
   </si>
 </sst>
 </file>
@@ -3358,7 +3361,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3402,6 +3405,9 @@
       <c r="C2" s="1">
         <v>912</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="34" t="s">

--- a/sorting_algorithms.xlsx
+++ b/sorting_algorithms.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbildner/Desktop/AA-Data-Structures-Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C4D269-A487-A041-BFF5-B7E879B81F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB1C1EC-11C4-EB40-8F01-1C3782A4EA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="460" windowWidth="33460" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="460" windowWidth="33460" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SelectionSort" sheetId="6" r:id="rId1"/>
     <sheet name="InsertionSort" sheetId="3" r:id="rId2"/>
-    <sheet name="OVERVIEW" sheetId="1" r:id="rId3"/>
+    <sheet name="MergeSort" sheetId="7" r:id="rId3"/>
+    <sheet name="OVERVIEW" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>Problem #</t>
   </si>
@@ -1803,13 +1804,1435 @@
   </si>
   <si>
     <t>Side by side comparison sort</t>
+  </si>
+  <si>
+    <t>Given an array of integers nums, sort the array in ascending order (not required, but use merge sort)</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array1, array2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>// removing and pushing smaller num only</t>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>merged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = [];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>arr1Num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>arr2Num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>arr1Num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>arr2Num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>merged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>merged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>merged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>concat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// 1) create new array to hold merged arrays</t>
+  </si>
+  <si>
+    <t>// 2) keep looping until one of the arrays are empty</t>
+  </si>
+  <si>
+    <t>// 3) grab first num from arr1</t>
+  </si>
+  <si>
+    <t>// 4) grab first num from arr2</t>
+  </si>
+  <si>
+    <t>// 5) if arr1Num &lt; arr2Num, remove arr1Num from arr1 and push to merged</t>
+  </si>
+  <si>
+    <t>// 6) else remove arr2Num from arr2 and push to merged</t>
+  </si>
+  <si>
+    <t>// 7) return merged concatonated arrays</t>
+  </si>
+  <si>
+    <t>//=&gt; [ 0, 1, 2, 3, 5 ]</t>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]));</t>
+    </r>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>// split array in two</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>mergeSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>midIdx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>floor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>midIdx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>midIdx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>mergeSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>mergeSort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <t>// 1) base case if array length &lt;=1, then array already sorted</t>
+  </si>
+  <si>
+    <t>// 2) grab middle index</t>
+  </si>
+  <si>
+    <t>// 3) grab left side of array</t>
+  </si>
+  <si>
+    <t>// 4) grab right side of array</t>
+  </si>
+  <si>
+    <t>// 5) recursive call, return merged sorted left and sorted right</t>
+  </si>
+  <si>
+    <t>Helper</t>
+  </si>
+  <si>
+    <t>// O(N) Time/Space, N = combined array lengths. Takes in 2 sorted arrays, returns merged array (mutates arrays)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>O(N log(N))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  where N = input array length,  log(N) represents the recursive calls</t>
+    </r>
+  </si>
+  <si>
+    <t>Use helper function that merges 2 sorted arrays. Main function splits array in half, then recursively sorts each half and merges them</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - if you have unlimited memory available</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Time Complexity = O(N Log(N)), N = input array length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   log(N) represents the two recursive calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    the first N in N * log(N) represents the while loop in the merge helper function!</t>
+  </si>
+  <si>
+    <t>Use helper function that merges two sorted arrays. Main function is solved recursively, by splitting array in half and recursivley sorting each half and merging them</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>O(N)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  does NOT mutate input array</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1941,6 +3364,25 @@
       <color rgb="FF00B050"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1974,7 +3416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2140,11 +3582,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2215,15 +3666,11 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2287,6 +3734,65 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2697,8 +4203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D20D3A-DB96-2447-A98F-5E8AE913C355}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2817,13 +4323,13 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1">
-      <c r="A15" s="36">
+      <c r="A15" s="34">
         <v>0</v>
       </c>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" s="7" customFormat="1">
-      <c r="A16" s="36">
+      <c r="A16" s="34">
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2834,17 +4340,17 @@
       </c>
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1">
-      <c r="A17" s="36">
+      <c r="A17" s="34">
         <v>2</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" s="7" customFormat="1">
-      <c r="A18" s="36">
+      <c r="A18" s="34">
         <v>3</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2852,16 +4358,16 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="7" customFormat="1">
-      <c r="A19" s="36">
+      <c r="A19" s="34">
         <v>4</v>
       </c>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" s="7" customFormat="1">
-      <c r="A20" s="36">
+      <c r="A20" s="34">
         <v>5</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -2869,10 +4375,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" s="7" customFormat="1">
-      <c r="A21" s="36">
+      <c r="A21" s="34">
         <v>6</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -2880,116 +4386,108 @@
       </c>
     </row>
     <row r="22" spans="1:3" s="7" customFormat="1">
-      <c r="A22" s="36">
+      <c r="A22" s="34">
         <v>7</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" s="7" customFormat="1">
-      <c r="A23" s="36">
+      <c r="A23" s="34">
         <v>8</v>
       </c>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" s="7" customFormat="1">
-      <c r="A24" s="36">
+      <c r="A24" s="34">
         <v>9</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="7" customFormat="1">
-      <c r="A25" s="36">
+      <c r="A25" s="34">
         <v>10</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" s="7" customFormat="1">
-      <c r="A26" s="36">
+      <c r="A26" s="34">
         <v>11</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" s="7" customFormat="1">
+      <c r="A27" s="34">
         <v>12</v>
       </c>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1">
-      <c r="A27" s="36">
+      <c r="B27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1">
+      <c r="A28" s="34">
+        <v>13</v>
+      </c>
+      <c r="B28" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1">
-      <c r="A28" s="36">
-        <v>13</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1">
-      <c r="A29" s="36">
-        <v>14</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="29"/>
+      <c r="A29" s="34"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="44" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="32" spans="1:3" s="7" customFormat="1"/>
     <row r="33" spans="1:3" s="7" customFormat="1"/>
     <row r="34" spans="1:3" s="7" customFormat="1">
+      <c r="A34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1">
-      <c r="A36" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="51">
-      <c r="B37" s="55" t="s">
+    <row r="36" spans="1:3" s="7" customFormat="1" ht="51">
+      <c r="B36" s="53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="119">
-      <c r="B38" s="55" t="s">
+    <row r="37" spans="1:3" s="7" customFormat="1" ht="119">
+      <c r="B37" s="53" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="38" spans="1:3" s="7" customFormat="1"/>
     <row r="39" spans="1:3" s="7" customFormat="1">
-      <c r="B39" s="56"/>
+      <c r="B39" s="54"/>
     </row>
     <row r="40" spans="1:3" s="7" customFormat="1"/>
     <row r="41" spans="1:3" s="7" customFormat="1"/>
@@ -3009,7 +4507,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3128,17 +4626,17 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1">
-      <c r="A15" s="36">
+      <c r="A15" s="34">
         <v>0</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" s="7" customFormat="1">
-      <c r="A16" s="36">
+      <c r="A16" s="34">
         <v>1</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3146,10 +4644,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1">
-      <c r="A17" s="36">
+      <c r="A17" s="34">
         <v>2</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -3157,16 +4655,16 @@
       </c>
     </row>
     <row r="18" spans="1:3" s="7" customFormat="1">
-      <c r="A18" s="36">
+      <c r="A18" s="34">
         <v>3</v>
       </c>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" s="7" customFormat="1">
-      <c r="A19" s="36">
+      <c r="A19" s="34">
         <v>4</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -3174,10 +4672,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" s="7" customFormat="1">
-      <c r="A20" s="36">
+      <c r="A20" s="34">
         <v>5</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="49" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -3185,16 +4683,16 @@
       </c>
     </row>
     <row r="21" spans="1:3" s="7" customFormat="1">
-      <c r="A21" s="36">
+      <c r="A21" s="34">
         <v>6</v>
       </c>
       <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" s="7" customFormat="1">
-      <c r="A22" s="36">
+      <c r="A22" s="34">
         <v>7</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -3202,64 +4700,64 @@
       </c>
     </row>
     <row r="23" spans="1:3" s="7" customFormat="1">
-      <c r="A23" s="36">
+      <c r="A23" s="34">
         <v>8</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="50" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" s="7" customFormat="1">
-      <c r="A24" s="36">
+      <c r="A24" s="34">
         <v>9</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="7" customFormat="1">
-      <c r="A25" s="36">
+      <c r="A25" s="34">
         <v>10</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" s="7" customFormat="1">
-      <c r="A26" s="36">
+      <c r="A26" s="34">
         <v>11</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3" s="7" customFormat="1">
-      <c r="A27" s="36">
+      <c r="A27" s="34">
         <v>12</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1">
-      <c r="A28" s="36">
+      <c r="A28" s="34">
         <v>13</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1">
-      <c r="A29" s="36">
+      <c r="A29" s="34">
         <v>14</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -3267,46 +4765,46 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1">
-      <c r="A30" s="36">
+      <c r="A30" s="34">
         <v>15</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1">
-      <c r="A31" s="36">
+      <c r="A31" s="34">
         <v>16</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" s="7" customFormat="1">
-      <c r="A32" s="36">
+      <c r="A32" s="34">
         <v>17</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33" spans="1:3" s="7" customFormat="1">
-      <c r="A33" s="36">
+      <c r="A33" s="34">
         <v>18</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="41"/>
     </row>
     <row r="34" spans="1:3" s="7" customFormat="1">
-      <c r="A34" s="36"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="34"/>
+      <c r="C34" s="41"/>
     </row>
     <row r="35" spans="1:3" s="7" customFormat="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -3314,7 +4812,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="7" customFormat="1">
-      <c r="B36" s="46"/>
+      <c r="B36" s="44"/>
     </row>
     <row r="37" spans="1:3" s="7" customFormat="1">
       <c r="A37" s="7" t="s">
@@ -3337,7 +4835,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" s="7" customFormat="1" ht="34">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="54" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3357,11 +4855,547 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40578A68-C530-454E-8BDC-19CE82CA2051}">
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="7" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="34">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="17">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="7" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="7" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="7" customFormat="1">
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" s="7" customFormat="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="22"/>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1" ht="34">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="7" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1">
+      <c r="A14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1">
+      <c r="A15" s="34">
+        <v>0</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="7" customFormat="1">
+      <c r="A16" s="34">
+        <v>1</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1">
+      <c r="A17" s="34">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="7" customFormat="1">
+      <c r="A18" s="34">
+        <v>3</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="7" customFormat="1">
+      <c r="A19" s="34">
+        <v>4</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="7" customFormat="1">
+      <c r="A20" s="34">
+        <v>5</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1">
+      <c r="A21" s="34">
+        <v>6</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" s="7" customFormat="1">
+      <c r="A22" s="34">
+        <v>7</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1">
+      <c r="A23" s="34">
+        <v>8</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1">
+      <c r="A24" s="34">
+        <v>9</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1">
+      <c r="A25" s="34">
+        <v>10</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1">
+      <c r="A26" s="34">
+        <v>11</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" s="7" customFormat="1">
+      <c r="A27" s="34">
+        <v>12</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1">
+      <c r="A28" s="34">
+        <v>13</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" s="7" customFormat="1">
+      <c r="A29" s="34">
+        <v>14</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:3" s="7" customFormat="1">
+      <c r="A30" s="34">
+        <v>15</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="7" customFormat="1">
+      <c r="A31" s="34">
+        <v>16</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:3" s="7" customFormat="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="7" customFormat="1">
+      <c r="A33" s="34"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" s="7" customFormat="1">
+      <c r="A34" s="34"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" s="7" customFormat="1">
+      <c r="A35" s="13"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" s="7" customFormat="1">
+      <c r="A36" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" s="7" customFormat="1">
+      <c r="A37" s="70">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="7" customFormat="1">
+      <c r="A38" s="70">
+        <v>2</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" s="7" customFormat="1">
+      <c r="A39" s="70">
+        <v>3</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" s="7" customFormat="1">
+      <c r="A40" s="70">
+        <v>4</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="7" customFormat="1">
+      <c r="A41" s="70">
+        <v>5</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="7" customFormat="1">
+      <c r="A42" s="70">
+        <v>6</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="7" customFormat="1">
+      <c r="A43" s="70">
+        <v>7</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" s="7" customFormat="1">
+      <c r="A44" s="70">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="7" customFormat="1">
+      <c r="A45" s="72">
+        <v>9</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="74"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="57"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="55"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="57"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="55"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="55"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="55"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="57"/>
+      <c r="B50" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="55"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="57"/>
+      <c r="B51" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="55"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="57"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="55"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="55"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" s="55"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="D55" s="55"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="D56" s="55"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="55"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="D58" s="55"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" s="55"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="D60" s="55"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="D61" s="55"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="D62" s="55"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="D63" s="55"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="D64" s="55"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="55"/>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="55"/>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="55"/>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="55"/>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="55"/>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="55"/>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="55"/>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="55"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="55"/>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="55"/>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3376,7 +5410,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3396,7 +5430,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3410,7 +5444,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3425,7 +5459,7 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3445,19 +5479,28 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="34">
+      <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>912</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
